--- a/biology/Zoologie/Boophis_ankaratra/Boophis_ankaratra.xlsx
+++ b/biology/Zoologie/Boophis_ankaratra/Boophis_ankaratra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis ankaratra est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis ankaratra est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 1 200 et 1 800 m d'altitude dans les zones de haute montagne situées dans le centre de l'île, notamment à Andringitra et Ankaratra[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 1 200 et 1 800 m d'altitude dans les zones de haute montagne situées dans le centre de l'île, notamment à Andringitra et Ankaratra,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis ankaratra mesure de 24 à 28 mm pour les mâles, la taille des femelles n'étant pas connue. Sa coloration est vert clair avec des motifs réticulés de couleur jaunâtre et parfois des taches sombres. Son ventre est blanchâtre.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, Ankaratra.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Andreone, 1993 : Two new treefrogs of the genus Boophis (Anura: Rhacophoridae) from central-eastern Madagascar. Bollettino - Museo Regionale di Scienze Naturali, vol. 11, p. 289-313.</t>
         </is>
